--- a/库存.xlsx
+++ b/库存.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
   <si>
     <t>库存</t>
   </si>
@@ -114,6 +114,138 @@
     <t>KFZ3</t>
   </si>
   <si>
+    <t>GL3</t>
+  </si>
+  <si>
+    <t>BH(900～600)*250*8*12</t>
+  </si>
+  <si>
+    <t>GL3A</t>
+  </si>
+  <si>
+    <t>GL3D</t>
+  </si>
+  <si>
+    <t>GL6</t>
+  </si>
+  <si>
+    <t>GL6A</t>
+  </si>
+  <si>
+    <t>GL8</t>
+  </si>
+  <si>
+    <t>BH600*250*8*12</t>
+  </si>
+  <si>
+    <t>GL8A</t>
+  </si>
+  <si>
+    <t>GL8B</t>
+  </si>
+  <si>
+    <t>GL8C</t>
+  </si>
+  <si>
+    <t>GL8D</t>
+  </si>
+  <si>
+    <t>GL9B</t>
+  </si>
+  <si>
+    <t>GL9C</t>
+  </si>
+  <si>
+    <t>GL9D</t>
+  </si>
+  <si>
+    <t>ZC1</t>
+  </si>
+  <si>
+    <t>ZC3</t>
+  </si>
+  <si>
+    <t>HJ-1</t>
+  </si>
+  <si>
+    <t>HJ-4</t>
+  </si>
+  <si>
+    <t>HJ-5</t>
+  </si>
+  <si>
+    <t>FG1</t>
+  </si>
+  <si>
+    <t>L63*63*6</t>
+  </si>
+  <si>
+    <t>FG2</t>
+  </si>
+  <si>
+    <t>FG3</t>
+  </si>
+  <si>
+    <t>XFG1</t>
+  </si>
+  <si>
+    <t>XFG2</t>
+  </si>
+  <si>
+    <t>XFG3</t>
+  </si>
+  <si>
+    <t>ZC2</t>
+  </si>
+  <si>
+    <t>ZC4</t>
+  </si>
+  <si>
+    <t>ZC5</t>
+  </si>
+  <si>
+    <t>L100*100*10</t>
+  </si>
+  <si>
+    <t>ZC6</t>
+  </si>
+  <si>
+    <t>YC1</t>
+  </si>
+  <si>
+    <t>L50*4</t>
+  </si>
+  <si>
+    <t>YC2</t>
+  </si>
+  <si>
+    <t>YC3</t>
+  </si>
+  <si>
+    <t>YC4</t>
+  </si>
+  <si>
+    <t>YC5</t>
+  </si>
+  <si>
+    <t>YC6</t>
+  </si>
+  <si>
+    <t>YC7</t>
+  </si>
+  <si>
+    <t>YC8</t>
+  </si>
+  <si>
+    <t>YC9</t>
+  </si>
+  <si>
+    <t>YC10</t>
+  </si>
+  <si>
+    <t>YC11</t>
+  </si>
+  <si>
     <t>福州地铁</t>
   </si>
   <si>
@@ -160,6 +292,9 @@
   </si>
   <si>
     <t>1DCL5</t>
+  </si>
+  <si>
+    <t>1DCL3</t>
   </si>
 </sst>
 </file>
@@ -167,12 +302,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,13 +338,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -223,7 +351,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,16 +373,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,14 +392,6 @@
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -283,26 +411,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -315,23 +427,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -352,14 +448,46 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -380,193 +508,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -634,9 +756,41 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -665,43 +819,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -720,169 +851,160 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -895,9 +1017,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -907,10 +1026,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -925,37 +1044,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="13" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1316,12 +1447,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:F2"/>
+      <selection pane="bottomLeft" activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1338,158 +1469,158 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" ht="15.6" spans="1:6">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="7">
-        <v>1</v>
-      </c>
-      <c r="E3" s="9">
+      <c r="D3" s="6">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8">
         <v>1673.2</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
         <f>E3*D3</f>
         <v>1673.2</v>
       </c>
     </row>
     <row r="4" ht="15.6" spans="1:6">
-      <c r="A4" s="10"/>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="9"/>
+      <c r="B4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="7">
-        <v>1</v>
-      </c>
-      <c r="E4" s="9">
+      <c r="D4" s="6">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8">
         <v>1141.6</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <f>E4*D4</f>
         <v>1141.6</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="10"/>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="9"/>
+      <c r="B5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="7">
-        <v>1</v>
-      </c>
-      <c r="E5" s="8">
+      <c r="D5" s="6">
+        <v>1</v>
+      </c>
+      <c r="E5" s="7">
         <v>1095.3</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <f>E5*D5</f>
         <v>1095.3</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="10"/>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="9"/>
+      <c r="B6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="7">
-        <v>1</v>
-      </c>
-      <c r="E6" s="8">
+      <c r="D6" s="6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="7">
         <v>898.9</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="6">
         <f>E6*D6</f>
         <v>898.9</v>
       </c>
     </row>
     <row r="7" ht="15.6" spans="1:6">
-      <c r="A7" s="10"/>
-      <c r="B7" s="7" t="s">
+      <c r="A7" s="9"/>
+      <c r="B7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="10">
         <v>48</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11">
+      <c r="E7" s="10"/>
+      <c r="F7" s="10">
         <f>E7*D7</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" ht="15.6" spans="1:6">
-      <c r="A8" s="10"/>
-      <c r="B8" s="7" t="s">
+      <c r="A8" s="9"/>
+      <c r="B8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
     </row>
     <row r="9" ht="15.6" spans="1:8">
-      <c r="A9" s="10"/>
-      <c r="B9" s="7" t="s">
+      <c r="A9" s="9"/>
+      <c r="B9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <v>40</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="6">
         <v>120</v>
       </c>
-      <c r="F9" s="7">
-        <f t="shared" ref="F9:F17" si="0">E9*D9</f>
+      <c r="F9" s="6">
+        <f>E9*D9</f>
         <v>4800</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="12" t="s">
         <v>20</v>
       </c>
       <c r="H9" s="2">
@@ -1498,406 +1629,989 @@
       </c>
     </row>
     <row r="10" ht="15.6" spans="1:6">
-      <c r="A10" s="10"/>
-      <c r="B10" s="7" t="s">
+      <c r="A10" s="9"/>
+      <c r="B10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <v>16</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="6">
         <v>200</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="6">
+        <f>E10*D10</f>
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="9"/>
+      <c r="B11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="6">
+        <v>3</v>
+      </c>
+      <c r="E11" s="7">
+        <v>1239.6</v>
+      </c>
+      <c r="F11" s="6">
+        <f>E11*D11</f>
+        <v>3718.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="9"/>
+      <c r="B12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="6">
+        <v>1</v>
+      </c>
+      <c r="E12" s="7">
+        <v>1253.9</v>
+      </c>
+      <c r="F12" s="6">
+        <f>E12*D12</f>
+        <v>1253.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="9"/>
+      <c r="B13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="6">
+        <v>1</v>
+      </c>
+      <c r="E13" s="7">
+        <v>752.4</v>
+      </c>
+      <c r="F13" s="6">
+        <f>E13*D13</f>
+        <v>752.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="9"/>
+      <c r="B14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="6">
+        <v>1</v>
+      </c>
+      <c r="E14" s="7">
+        <v>630.1</v>
+      </c>
+      <c r="F14" s="6">
+        <f>E14*D14</f>
+        <v>630.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="9"/>
+      <c r="B15" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="6">
+        <v>1</v>
+      </c>
+      <c r="E15" s="7">
+        <v>699.2</v>
+      </c>
+      <c r="F15" s="6">
+        <f>E15*D15</f>
+        <v>699.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="9"/>
+      <c r="B16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="6">
+        <v>1</v>
+      </c>
+      <c r="E16" s="7">
+        <v>866.2</v>
+      </c>
+      <c r="F16" s="6">
+        <f>E16*D16</f>
+        <v>866.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="9"/>
+      <c r="B17" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="6">
+        <v>1</v>
+      </c>
+      <c r="E17" s="7">
+        <v>514.8</v>
+      </c>
+      <c r="F17" s="6">
+        <f>E17*D17</f>
+        <v>514.8</v>
+      </c>
+    </row>
+    <row r="18" ht="15.6" spans="1:6">
+      <c r="A18" s="9"/>
+      <c r="B18" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="8">
+        <v>1</v>
+      </c>
+      <c r="E18" s="13">
+        <v>20804</v>
+      </c>
+      <c r="F18" s="13">
+        <v>20804</v>
+      </c>
+    </row>
+    <row r="19" ht="15.6" spans="1:6">
+      <c r="A19" s="9"/>
+      <c r="B19" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="8">
+        <v>1</v>
+      </c>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+    </row>
+    <row r="20" ht="15.6" spans="1:6">
+      <c r="A20" s="9"/>
+      <c r="B20" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="8">
+        <v>1</v>
+      </c>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+    </row>
+    <row r="21" ht="15.6" spans="1:6">
+      <c r="A21" s="9"/>
+      <c r="B21" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="8">
+        <v>3</v>
+      </c>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+    </row>
+    <row r="22" ht="15.6" spans="1:6">
+      <c r="A22" s="9"/>
+      <c r="B22" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="8">
+        <v>1</v>
+      </c>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+    </row>
+    <row r="23" ht="15.6" spans="1:6">
+      <c r="A23" s="9"/>
+      <c r="B23" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="8">
+        <v>2</v>
+      </c>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+    </row>
+    <row r="24" ht="15.6" spans="1:6">
+      <c r="A24" s="9"/>
+      <c r="B24" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="8">
+        <v>1</v>
+      </c>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+    </row>
+    <row r="25" ht="15.6" spans="1:8">
+      <c r="A25" s="9"/>
+      <c r="B25" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="8">
+        <v>1</v>
+      </c>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" s="2">
+        <v>20804</v>
+      </c>
+    </row>
+    <row r="26" ht="15.6" spans="1:6">
+      <c r="A26" s="9"/>
+      <c r="B26" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="8">
+        <v>1</v>
+      </c>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+    </row>
+    <row r="27" ht="15.6" spans="1:6">
+      <c r="A27" s="9"/>
+      <c r="B27" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="8">
+        <v>1</v>
+      </c>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+    </row>
+    <row r="28" ht="15.6" spans="1:6">
+      <c r="A28" s="9"/>
+      <c r="B28" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="8">
+        <v>1</v>
+      </c>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+    </row>
+    <row r="29" ht="15.6" spans="1:6">
+      <c r="A29" s="9"/>
+      <c r="B29" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="8">
+        <v>1</v>
+      </c>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+    </row>
+    <row r="30" ht="15.6" spans="1:6">
+      <c r="A30" s="9"/>
+      <c r="B30" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="8">
+        <v>1</v>
+      </c>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+    </row>
+    <row r="31" ht="15.6" spans="1:6">
+      <c r="A31" s="9"/>
+      <c r="B31" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="8">
+        <v>6</v>
+      </c>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+    </row>
+    <row r="32" ht="15.6" spans="1:6">
+      <c r="A32" s="9"/>
+      <c r="B32" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="8">
+        <v>6</v>
+      </c>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+    </row>
+    <row r="33" ht="15.6" spans="1:6">
+      <c r="A33" s="9"/>
+      <c r="B33" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="8">
+        <v>8</v>
+      </c>
+      <c r="E33" s="16">
+        <v>12255</v>
+      </c>
+      <c r="F33" s="16">
+        <v>12255</v>
+      </c>
+    </row>
+    <row r="34" ht="15.6" spans="1:6">
+      <c r="A34" s="9"/>
+      <c r="B34" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" s="8">
+        <v>1</v>
+      </c>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+    </row>
+    <row r="35" ht="15.6" spans="1:6">
+      <c r="A35" s="9"/>
+      <c r="B35" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="8">
+        <v>1</v>
+      </c>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+    </row>
+    <row r="36" ht="15.6" spans="1:6">
+      <c r="A36" s="9"/>
+      <c r="B36" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" s="8">
+        <v>222</v>
+      </c>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+    </row>
+    <row r="37" ht="15.6" spans="1:6">
+      <c r="A37" s="9"/>
+      <c r="B37" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37" s="8">
+        <v>53</v>
+      </c>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+    </row>
+    <row r="38" ht="15.6" spans="1:6">
+      <c r="A38" s="9"/>
+      <c r="B38" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D38" s="8">
+        <v>53</v>
+      </c>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+    </row>
+    <row r="39" ht="15.6" spans="1:6">
+      <c r="A39" s="9"/>
+      <c r="B39" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D39" s="8">
+        <v>204</v>
+      </c>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+    </row>
+    <row r="40" ht="15.6" spans="1:6">
+      <c r="A40" s="9"/>
+      <c r="B40" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40" s="8">
+        <v>50</v>
+      </c>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+    </row>
+    <row r="41" ht="15.6" spans="1:6">
+      <c r="A41" s="9"/>
+      <c r="B41" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D41" s="8">
+        <v>48</v>
+      </c>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+    </row>
+    <row r="42" ht="15.6" spans="1:6">
+      <c r="A42" s="9"/>
+      <c r="B42" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" s="8">
+        <v>12</v>
+      </c>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+    </row>
+    <row r="43" ht="15.6" spans="1:6">
+      <c r="A43" s="9"/>
+      <c r="B43" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" s="8">
+        <v>12</v>
+      </c>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+    </row>
+    <row r="44" ht="15.6" spans="1:8">
+      <c r="A44" s="9"/>
+      <c r="B44" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D44" s="8">
+        <v>2</v>
+      </c>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H44" s="2">
+        <v>12255</v>
+      </c>
+    </row>
+    <row r="45" ht="15.6" spans="1:6">
+      <c r="A45" s="9"/>
+      <c r="B45" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D45" s="8">
+        <v>2</v>
+      </c>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+    </row>
+    <row r="46" ht="15.6" spans="1:6">
+      <c r="A46" s="9"/>
+      <c r="B46" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D46" s="8">
+        <v>8</v>
+      </c>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+    </row>
+    <row r="47" ht="15.6" spans="1:6">
+      <c r="A47" s="9"/>
+      <c r="B47" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D47" s="8">
+        <v>8</v>
+      </c>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+    </row>
+    <row r="48" ht="15.6" spans="1:6">
+      <c r="A48" s="9"/>
+      <c r="B48" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D48" s="8">
+        <v>8</v>
+      </c>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+    </row>
+    <row r="49" ht="15.6" spans="1:6">
+      <c r="A49" s="9"/>
+      <c r="B49" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D49" s="8">
+        <v>180</v>
+      </c>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+    </row>
+    <row r="50" ht="15.6" spans="1:6">
+      <c r="A50" s="9"/>
+      <c r="B50" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D50" s="8">
+        <v>36</v>
+      </c>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+    </row>
+    <row r="51" ht="15.6" spans="1:6">
+      <c r="A51" s="9"/>
+      <c r="B51" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D51" s="8">
+        <v>36</v>
+      </c>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
+    </row>
+    <row r="52" ht="15.6" spans="1:6">
+      <c r="A52" s="9"/>
+      <c r="B52" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D52" s="8">
+        <v>36</v>
+      </c>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
+    </row>
+    <row r="53" ht="15.6" spans="1:6">
+      <c r="A53" s="9"/>
+      <c r="B53" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D53" s="8">
+        <v>36</v>
+      </c>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
+    </row>
+    <row r="54" ht="15.6" spans="1:6">
+      <c r="A54" s="9"/>
+      <c r="B54" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D54" s="8">
+        <v>28</v>
+      </c>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
+    </row>
+    <row r="55" ht="15.6" spans="1:6">
+      <c r="A55" s="9"/>
+      <c r="B55" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D55" s="8">
+        <v>28</v>
+      </c>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
+    </row>
+    <row r="56" ht="15.6" spans="1:6">
+      <c r="A56" s="18"/>
+      <c r="B56" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D56" s="8">
+        <v>28</v>
+      </c>
+      <c r="E56" s="19"/>
+      <c r="F56" s="19"/>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="B57" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C57" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D57" s="22">
+        <v>1</v>
+      </c>
+      <c r="E57" s="21">
+        <v>2867.172</v>
+      </c>
+      <c r="F57" s="23">
+        <f t="shared" ref="F57:F67" si="0">E57*D57</f>
+        <v>2867.172</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="24"/>
+      <c r="B58" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C58" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D58" s="22">
+        <v>1</v>
+      </c>
+      <c r="E58" s="21">
+        <v>1997.877</v>
+      </c>
+      <c r="F58" s="23">
         <f t="shared" si="0"/>
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="10"/>
-      <c r="B11" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="7">
+        <v>1997.877</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="24"/>
+      <c r="B59" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="C59" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D59" s="22">
+        <v>1</v>
+      </c>
+      <c r="E59" s="21">
+        <v>4178.235</v>
+      </c>
+      <c r="F59" s="23">
+        <f t="shared" si="0"/>
+        <v>4178.235</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="24"/>
+      <c r="B60" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C60" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D60" s="22">
         <v>3</v>
       </c>
-      <c r="E11" s="8">
-        <v>1239.6</v>
-      </c>
-      <c r="F11" s="7">
+      <c r="E60" s="21">
+        <v>3621.561</v>
+      </c>
+      <c r="F60" s="23">
         <f t="shared" si="0"/>
-        <v>3718.8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="10"/>
-      <c r="B12" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="7">
-        <v>1</v>
-      </c>
-      <c r="E12" s="8">
-        <v>1253.9</v>
-      </c>
-      <c r="F12" s="7">
+        <v>10864.683</v>
+      </c>
+      <c r="G60" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H60" s="2">
+        <f>SUM(F57:F63)</f>
+        <v>53382.518</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="24"/>
+      <c r="B61" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C61" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D61" s="22">
+        <v>3</v>
+      </c>
+      <c r="E61" s="21">
+        <v>3768.041</v>
+      </c>
+      <c r="F61" s="23">
         <f t="shared" si="0"/>
-        <v>1253.9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="10"/>
-      <c r="B13" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="7">
-        <v>1</v>
-      </c>
-      <c r="E13" s="8">
-        <v>752.4</v>
-      </c>
-      <c r="F13" s="7">
+        <v>11304.123</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="24"/>
+      <c r="B62" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C62" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D62" s="22">
+        <v>4</v>
+      </c>
+      <c r="E62" s="21">
+        <v>2261.456</v>
+      </c>
+      <c r="F62" s="23">
         <f t="shared" si="0"/>
-        <v>752.4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="10"/>
-      <c r="B14" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="7">
-        <v>1</v>
-      </c>
-      <c r="E14" s="8">
-        <v>630.1</v>
-      </c>
-      <c r="F14" s="7">
+        <v>9045.824</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="26"/>
+      <c r="B63" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C63" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D63" s="22">
+        <v>3</v>
+      </c>
+      <c r="E63" s="21">
+        <v>4374.868</v>
+      </c>
+      <c r="F63" s="23">
         <f t="shared" si="0"/>
-        <v>630.1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="10"/>
-      <c r="B15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="7">
-        <v>1</v>
-      </c>
-      <c r="E15" s="8">
-        <v>699.2</v>
-      </c>
-      <c r="F15" s="7">
+        <v>13124.604</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B64" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="C64" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="D64" s="27">
+        <v>1</v>
+      </c>
+      <c r="E64" s="27">
+        <v>5965.9</v>
+      </c>
+      <c r="F64" s="6">
         <f t="shared" si="0"/>
-        <v>699.2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="10"/>
-      <c r="B16" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="7">
-        <v>1</v>
-      </c>
-      <c r="E16" s="8">
-        <v>866.2</v>
-      </c>
-      <c r="F16" s="7">
+        <v>5965.9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="9"/>
+      <c r="B65" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="C65" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="D65" s="27">
+        <v>1</v>
+      </c>
+      <c r="E65" s="27">
+        <v>5965.9</v>
+      </c>
+      <c r="F65" s="6">
         <f t="shared" si="0"/>
-        <v>866.2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="14"/>
-      <c r="B17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="7">
-        <v>1</v>
-      </c>
-      <c r="E17" s="8">
-        <v>514.8</v>
-      </c>
-      <c r="F17" s="7">
+        <v>5965.9</v>
+      </c>
+      <c r="G65" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H65" s="2">
+        <f>SUM(F64:F68)</f>
+        <v>39335.2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="9"/>
+      <c r="B66" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="C66" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D66" s="27">
+        <v>1</v>
+      </c>
+      <c r="E66" s="27">
+        <v>9303.8</v>
+      </c>
+      <c r="F66" s="6">
         <f t="shared" si="0"/>
-        <v>514.8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="17">
-        <v>1</v>
-      </c>
-      <c r="E18" s="16">
-        <v>2867.172</v>
-      </c>
-      <c r="F18" s="18">
-        <f>E18*D18</f>
-        <v>2867.172</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="15"/>
-      <c r="B19" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="17">
-        <v>1</v>
-      </c>
-      <c r="E19" s="16">
-        <v>1997.877</v>
-      </c>
-      <c r="F19" s="18">
-        <f>E19*D19</f>
-        <v>1997.877</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="15"/>
-      <c r="B20" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="17">
-        <v>1</v>
-      </c>
-      <c r="E20" s="16">
-        <v>4178.235</v>
-      </c>
-      <c r="F20" s="18">
-        <f>E20*D20</f>
-        <v>4178.235</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="15"/>
-      <c r="B21" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="17">
-        <v>3</v>
-      </c>
-      <c r="E21" s="16">
-        <v>3621.561</v>
-      </c>
-      <c r="F21" s="18">
-        <f>E21*D21</f>
-        <v>10864.683</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H21" s="2">
-        <f>SUM(F18:F24)</f>
-        <v>53382.518</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="15"/>
-      <c r="B22" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="17">
-        <v>3</v>
-      </c>
-      <c r="E22" s="16">
-        <v>3768.041</v>
-      </c>
-      <c r="F22" s="18">
-        <f>E22*D22</f>
-        <v>11304.123</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="15"/>
-      <c r="B23" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="17">
-        <v>4</v>
-      </c>
-      <c r="E23" s="16">
-        <v>2261.456</v>
-      </c>
-      <c r="F23" s="18">
-        <f>E23*D23</f>
-        <v>9045.824</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="15"/>
-      <c r="B24" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="17">
-        <v>3</v>
-      </c>
-      <c r="E24" s="16">
-        <v>4374.868</v>
-      </c>
-      <c r="F24" s="18">
-        <f>E24*D24</f>
-        <v>13124.604</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" s="21">
-        <v>1</v>
-      </c>
-      <c r="E25" s="21">
-        <v>5965.9</v>
-      </c>
-      <c r="F25" s="7">
-        <f>E25*D25</f>
-        <v>5965.9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="22"/>
-      <c r="B26" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" s="21">
-        <v>1</v>
-      </c>
-      <c r="E26" s="21">
-        <v>5965.9</v>
-      </c>
-      <c r="F26" s="7">
-        <f>E26*D26</f>
-        <v>5965.9</v>
-      </c>
-      <c r="G26" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H26" s="2">
-        <f>SUM(F25:F28)</f>
-        <v>30539.4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="22"/>
-      <c r="B27" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="D27" s="21">
-        <v>1</v>
-      </c>
-      <c r="E27" s="21">
         <v>9303.8</v>
       </c>
-      <c r="F27" s="7">
-        <f>E27*D27</f>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="9"/>
+      <c r="B67" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="C67" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D67" s="27">
+        <v>1</v>
+      </c>
+      <c r="E67" s="27">
         <v>9303.8</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="23"/>
-      <c r="B28" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="D28" s="21">
-        <v>1</v>
-      </c>
-      <c r="E28" s="21">
+      <c r="F67" s="6">
+        <f t="shared" si="0"/>
         <v>9303.8</v>
       </c>
-      <c r="F28" s="7">
-        <f>E28*D28</f>
-        <v>9303.8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="24"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="18"/>
+      <c r="B68" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C68" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D68" s="6">
+        <v>1</v>
+      </c>
+      <c r="E68" s="27">
+        <v>8795.8</v>
+      </c>
+      <c r="F68" s="6">
+        <f>E68*D68</f>
+        <v>8795.8</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="16">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="A3:A17"/>
-    <mergeCell ref="A18:A24"/>
-    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="A3:A56"/>
+    <mergeCell ref="A57:A63"/>
+    <mergeCell ref="A64:A68"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E18:E32"/>
+    <mergeCell ref="E33:E56"/>
     <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F18:F32"/>
+    <mergeCell ref="F33:F56"/>
   </mergeCells>
-  <conditionalFormatting sqref="B18:B24">
+  <conditionalFormatting sqref="B57:B63">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
